--- a/biology/Médecine/James_Cowles_Prichard/James_Cowles_Prichard.xlsx
+++ b/biology/Médecine/James_Cowles_Prichard/James_Cowles_Prichard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Cowles Prichard est un ethnologue et médecin britannique, né à Ross, comté d’Hereford, le 11 février 1785, mort le 23 décembre 1848. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Édimbourg et y obtient un doctorat avec une thèse Sur l'histoire physique du genre humain. Après avoir exercé quelque temps la pratique de son art à Bristol, il y est nommé, en 1810, médecin du dispensaire de Clifton et de l’hôpital de Saint-Pierre ; mais ni les devoirs de son emploi ni les soins à donner à une clientèle fort étendue ne l’empêchèrent de se livrer aux études que sa thèse avait inaugurées. 
 En 1813, il fait paraître ses Recherches sur l’histoire physique du genre humain, qui ne forment qu’un volume à leur première édition, mais dont la seconde (1826) en compte deux et la troisième (1849) trois. 
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« James Cowles Prichard », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
